--- a/doc/01 概要设计/业务流程.xlsx
+++ b/doc/01 概要设计/业务流程.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="采购" sheetId="1" r:id="rId1"/>
+    <sheet name="销售" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <r>
       <rPr>
@@ -65,6 +66,14 @@
       </rPr>
       <t>采购业务流程</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售业务流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售人员</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -192,7 +201,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -200,6 +209,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -211,14 +229,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1032,6 +1047,849 @@
         <a:xfrm rot="5400000" flipH="1" flipV="1">
           <a:off x="6400038" y="1259586"/>
           <a:ext cx="515874" cy="3752850"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -44313"/>
+            <a:gd name="adj2" fmla="val 93402"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>69723</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="流程图: 过程 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1095375" y="1228725"/>
+          <a:ext cx="1638300" cy="688848"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>新建销售订单</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>164973</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="流程图: 过程 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1133475" y="2295525"/>
+          <a:ext cx="1638300" cy="669798"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>审核销售订单</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>3048</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="流程图: 过程 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3657600" y="2305050"/>
+          <a:ext cx="1638300" cy="688848"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>销售订单生成</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>销售出库单</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>136398</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="流程图: 过程 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3667125" y="3409950"/>
+          <a:ext cx="1638300" cy="669798"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>提交销售出库单</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>136398</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="流程图: 过程 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6086475" y="3409950"/>
+          <a:ext cx="1638300" cy="669798"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>库存减少</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="下箭头 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1876425" y="1933575"/>
+          <a:ext cx="142875" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="右箭头 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2800350" y="2543175"/>
+          <a:ext cx="866775" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="下箭头 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4391025" y="3019425"/>
+          <a:ext cx="142875" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>3112</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直接箭头连接符 9"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="3"/>
+          <a:endCxn id="6" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5305425" y="3754374"/>
+          <a:ext cx="781050" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>88773</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="流程图: 过程 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8220075" y="1247775"/>
+          <a:ext cx="1638300" cy="688848"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>现金收支查询</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>107823</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="流程图: 过程 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8229600" y="2238375"/>
+          <a:ext cx="1638300" cy="669798"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>应收账款管理</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>98298</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="流程图: 过程 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8239125" y="3181350"/>
+          <a:ext cx="1638300" cy="669798"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>预收款管理</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>125349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>136398</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="形状 13"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="11" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="5109400" y="969074"/>
+          <a:ext cx="2487549" cy="3733800"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -10206"/>
+            <a:gd name="adj2" fmla="val 94132"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>666749</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>144399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>136398</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="形状 14"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="12" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="5599937" y="1450086"/>
+          <a:ext cx="1515999" cy="3743325"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -16764"/>
+            <a:gd name="adj2" fmla="val 93765"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>134874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>136398</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="形状 15"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="13" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="6076188" y="1916811"/>
+          <a:ext cx="573024" cy="3752850"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector4">
           <a:avLst>
@@ -1361,7 +2219,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="31.5">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="M2" s="2"/>
@@ -1372,171 +2230,171 @@
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="2:16" ht="24" customHeight="1">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="3" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="3" t="s">
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="3" t="s">
+      <c r="K4" s="7"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="N4" s="4"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="6"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="3"/>
     </row>
     <row r="5" spans="2:16">
-      <c r="B5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="P5" s="6"/>
+      <c r="B5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="P5" s="3"/>
     </row>
     <row r="6" spans="2:16">
-      <c r="B6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="P6" s="6"/>
+      <c r="B6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="P6" s="3"/>
     </row>
     <row r="7" spans="2:16">
-      <c r="B7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="P7" s="6"/>
+      <c r="B7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="P7" s="3"/>
     </row>
     <row r="8" spans="2:16">
-      <c r="B8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="P8" s="6"/>
+      <c r="B8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="P8" s="3"/>
     </row>
     <row r="9" spans="2:16">
-      <c r="B9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="P9" s="6"/>
+      <c r="B9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="P9" s="3"/>
     </row>
     <row r="10" spans="2:16">
-      <c r="B10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="P10" s="6"/>
+      <c r="B10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="P10" s="3"/>
     </row>
     <row r="11" spans="2:16">
-      <c r="B11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="P11" s="6"/>
+      <c r="B11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="P11" s="3"/>
     </row>
     <row r="12" spans="2:16">
-      <c r="B12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="P12" s="6"/>
+      <c r="B12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="P12" s="3"/>
     </row>
     <row r="13" spans="2:16">
-      <c r="B13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="P13" s="6"/>
+      <c r="B13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="P13" s="3"/>
     </row>
     <row r="14" spans="2:16">
-      <c r="B14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="P14" s="6"/>
+      <c r="B14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="P14" s="3"/>
     </row>
     <row r="15" spans="2:16">
-      <c r="B15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="P15" s="6"/>
+      <c r="B15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="P15" s="3"/>
     </row>
     <row r="16" spans="2:16">
-      <c r="B16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="P16" s="6"/>
+      <c r="B16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="P16" s="3"/>
     </row>
     <row r="17" spans="2:16">
-      <c r="B17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="P17" s="6"/>
+      <c r="B17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="P17" s="3"/>
     </row>
     <row r="18" spans="2:16">
-      <c r="B18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="P18" s="6"/>
+      <c r="B18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="P18" s="3"/>
     </row>
     <row r="19" spans="2:16">
-      <c r="B19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="P19" s="6"/>
+      <c r="B19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="P19" s="3"/>
     </row>
     <row r="20" spans="2:16">
-      <c r="B20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="P20" s="6"/>
+      <c r="B20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="P20" s="3"/>
     </row>
     <row r="21" spans="2:16">
-      <c r="B21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="P21" s="6"/>
+      <c r="B21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="P21" s="3"/>
     </row>
     <row r="22" spans="2:16">
-      <c r="B22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="P22" s="6"/>
+      <c r="B22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="P22" s="3"/>
     </row>
     <row r="23" spans="2:16">
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
     </row>
     <row r="24" spans="2:16">
       <c r="B24" s="2"/>
@@ -1566,4 +2424,225 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:P24"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="5.125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:16" ht="31.5">
+      <c r="B2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="2:16">
+      <c r="F3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="2:16" ht="24" customHeight="1">
+      <c r="B4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="7"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" s="7"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="3"/>
+    </row>
+    <row r="5" spans="2:16">
+      <c r="B5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="P5" s="3"/>
+    </row>
+    <row r="6" spans="2:16">
+      <c r="B6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="P6" s="3"/>
+    </row>
+    <row r="7" spans="2:16">
+      <c r="B7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="P7" s="3"/>
+    </row>
+    <row r="8" spans="2:16">
+      <c r="B8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="2:16">
+      <c r="B9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="2:16">
+      <c r="B10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="2:16">
+      <c r="B11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="2:16">
+      <c r="B12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="2:16">
+      <c r="B13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="2:16">
+      <c r="B14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="2:16">
+      <c r="B15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="2:16">
+      <c r="B16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="2:16">
+      <c r="B17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="2:16">
+      <c r="B18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="2:16">
+      <c r="B19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="2:16">
+      <c r="B20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="2:16">
+      <c r="B21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="2:16">
+      <c r="B22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="2:16">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+    </row>
+    <row r="24" spans="2:16">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="M4:O4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>